--- a/Docs/RavenGamesMonthly business budget.xlsx
+++ b/Docs/RavenGamesMonthly business budget.xlsx
@@ -696,6 +696,90 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Gill Sans MT"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Gill Sans MT"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Gill Sans MT"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -844,90 +928,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Gill Sans MT"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Gill Sans MT"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Gill Sans MT"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1146,7 +1146,7 @@
                   <c:v>23300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17450</c:v>
+                  <c:v>12450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,11 +1229,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-3"/>
-        <c:axId val="356637280"/>
-        <c:axId val="356638368"/>
+        <c:axId val="3829968"/>
+        <c:axId val="3827792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="356637280"/>
+        <c:axId val="3829968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356638368"/>
+        <c:crossAx val="3827792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1265,7 +1265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356638368"/>
+        <c:axId val="3827792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356637280"/>
+        <c:crossAx val="3829968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1387,13 +1387,13 @@
     <sortCondition ref="H16:H37"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="OPERATING EXPENSES" totalsRowLabel="Total Operating" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="ESTIMATED" totalsRowFunction="sum" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="ACTUAL" totalsRowFunction="sum" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Top 5 Amount" totalsRowDxfId="1">
+    <tableColumn id="1" name="OPERATING EXPENSES" totalsRowLabel="Total Operating" totalsRowDxfId="19"/>
+    <tableColumn id="2" name="ESTIMATED" totalsRowFunction="sum" totalsRowDxfId="18"/>
+    <tableColumn id="3" name="ACTUAL" totalsRowFunction="sum" totalsRowDxfId="17"/>
+    <tableColumn id="5" name="Top 5 Amount" totalsRowDxfId="16">
       <calculatedColumnFormula>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="DIFFERENCE" totalsRowFunction="sum" totalsRowDxfId="0">
+    <tableColumn id="4" name="DIFFERENCE" totalsRowFunction="sum" totalsRowDxfId="15">
       <calculatedColumnFormula>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1410,13 +1410,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="IncomeTable" displayName="IncomeTable" ref="H5:L9" totalsRowCount="1">
   <autoFilter ref="H5:L8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="INCOME" totalsRowLabel="Total" totalsRowDxfId="14"/>
-    <tableColumn id="2" name="ESTIMATED" totalsRowFunction="sum" totalsRowDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="3" name="ACTUAL" totalsRowFunction="sum" totalsRowDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="5" name="TOP 5 AMOUNT" totalsRowDxfId="11">
+    <tableColumn id="1" name="INCOME" totalsRowLabel="Total" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="ESTIMATED" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="ACTUAL" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="TOP 5 AMOUNT" totalsRowDxfId="1">
       <calculatedColumnFormula>IncomeTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(IncomeTable[[#This Row],[ACTUAL]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="DIFFERENCE" totalsRowFunction="sum" totalsRowDxfId="10" dataCellStyle="Comma">
+    <tableColumn id="4" name="DIFFERENCE" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>IncomeTable[[#This Row],[ACTUAL]]-IncomeTable[[#This Row],[ESTIMATED]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1457,14 +1457,14 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Top5Expenses" displayName="Top5Expenses" ref="B32:E38" totalsRowCount="1">
   <tableColumns count="4">
-    <tableColumn id="1" name="EXPENSE" totalsRowLabel="Total" totalsRowDxfId="19">
+    <tableColumn id="1" name="EXPENSE" totalsRowLabel="Total" totalsRowDxfId="14">
       <calculatedColumnFormula>INDEX(OperatingExpensesTable[],MATCH(Top5Expenses[[#This Row],[AMOUNT]],OperatingExpensesTable[Top 5 Amount],0),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="AMOUNT" totalsRowFunction="sum" totalsRowDxfId="18"/>
-    <tableColumn id="3" name="% OF EXPENSES" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="2" name="AMOUNT" totalsRowFunction="sum" totalsRowDxfId="13"/>
+    <tableColumn id="3" name="% OF EXPENSES" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>Top5Expenses[[#This Row],[AMOUNT]]/$D$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="15% REDUCTION" totalsRowFunction="sum" totalsRowDxfId="15">
+    <tableColumn id="4" name="15% REDUCTION" totalsRowFunction="sum" totalsRowDxfId="10">
       <calculatedColumnFormula>Top5Expenses[[#This Row],[AMOUNT]]*0.15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1754,8 +1754,8 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1851,11 +1851,11 @@
       </c>
       <c r="D6" s="6">
         <f>IncomeTable[[#Totals],[ACTUAL]]</f>
-        <v>17450</v>
+        <v>12450</v>
       </c>
       <c r="E6" s="6">
         <f>TotalsTable[[#This Row],[ACTUAL]]-TotalsTable[[#This Row],[ESTIMATED]]</f>
-        <v>-5850</v>
+        <v>-10850</v>
       </c>
       <c r="F6" s="17"/>
       <c r="H6" s="5" t="s">
@@ -1865,15 +1865,15 @@
         <v>20000</v>
       </c>
       <c r="J6" s="6">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="K6" s="6">
         <f>IncomeTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(IncomeTable[[#This Row],[ACTUAL]])</f>
-        <v>14000.000006</v>
+        <v>9000.0000060000002</v>
       </c>
       <c r="L6" s="6">
         <f>IncomeTable[[#This Row],[ACTUAL]]-IncomeTable[[#This Row],[ESTIMATED]]</f>
-        <v>-6000</v>
+        <v>-11000</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1921,11 +1921,11 @@
       </c>
       <c r="D8" s="7">
         <f>D6-D7</f>
-        <v>1520.17</v>
+        <v>-3479.83</v>
       </c>
       <c r="E8" s="6">
         <f>TotalsTable[[#Totals],[ACTUAL]]-TotalsTable[[#Totals],[ESTIMATED]]</f>
-        <v>-5049.9999999999982</v>
+        <v>-10049.999999999998</v>
       </c>
       <c r="F8" s="18"/>
       <c r="H8" s="5" t="s">
@@ -1956,12 +1956,12 @@
       </c>
       <c r="J9" s="6">
         <f>SUBTOTAL(109,IncomeTable[ACTUAL])</f>
-        <v>17450</v>
+        <v>12450</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="6">
         <f>SUBTOTAL(109,IncomeTable[DIFFERENCE])</f>
-        <v>-5850</v>
+        <v>-10850</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/Docs/RavenGamesMonthly business budget.xlsx
+++ b/Docs/RavenGamesMonthly business budget.xlsx
@@ -546,6 +546,90 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Gill Sans MT"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Gill Sans MT"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Gill Sans MT"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -694,90 +778,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Gill Sans MT"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Gill Sans MT"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Gill Sans MT"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1229,11 +1229,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-3"/>
-        <c:axId val="3829968"/>
-        <c:axId val="3827792"/>
+        <c:axId val="-1796582176"/>
+        <c:axId val="-1796579456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3829968"/>
+        <c:axId val="-1796582176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3827792"/>
+        <c:crossAx val="-1796579456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1265,7 +1265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3827792"/>
+        <c:axId val="-1796579456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3829968"/>
+        <c:crossAx val="-1796582176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1410,13 +1410,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="IncomeTable" displayName="IncomeTable" ref="H5:L9" totalsRowCount="1">
   <autoFilter ref="H5:L8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="INCOME" totalsRowLabel="Total" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="ESTIMATED" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" name="ACTUAL" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="5" name="TOP 5 AMOUNT" totalsRowDxfId="1">
+    <tableColumn id="1" name="INCOME" totalsRowLabel="Total" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="ESTIMATED" totalsRowFunction="sum" totalsRowDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="ACTUAL" totalsRowFunction="sum" totalsRowDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="TOP 5 AMOUNT" totalsRowDxfId="11">
       <calculatedColumnFormula>IncomeTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(IncomeTable[[#This Row],[ACTUAL]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="DIFFERENCE" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="4" name="DIFFERENCE" totalsRowFunction="sum" totalsRowDxfId="10" dataCellStyle="Comma">
       <calculatedColumnFormula>IncomeTable[[#This Row],[ACTUAL]]-IncomeTable[[#This Row],[ESTIMATED]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1457,14 +1457,14 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Top5Expenses" displayName="Top5Expenses" ref="B32:E38" totalsRowCount="1">
   <tableColumns count="4">
-    <tableColumn id="1" name="EXPENSE" totalsRowLabel="Total" totalsRowDxfId="14">
+    <tableColumn id="1" name="EXPENSE" totalsRowLabel="Total" totalsRowDxfId="9">
       <calculatedColumnFormula>INDEX(OperatingExpensesTable[],MATCH(Top5Expenses[[#This Row],[AMOUNT]],OperatingExpensesTable[Top 5 Amount],0),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="AMOUNT" totalsRowFunction="sum" totalsRowDxfId="13"/>
-    <tableColumn id="3" name="% OF EXPENSES" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="2" name="AMOUNT" totalsRowFunction="sum" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="% OF EXPENSES" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>Top5Expenses[[#This Row],[AMOUNT]]/$D$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="15% REDUCTION" totalsRowFunction="sum" totalsRowDxfId="10">
+    <tableColumn id="4" name="15% REDUCTION" totalsRowFunction="sum" totalsRowDxfId="5">
       <calculatedColumnFormula>Top5Expenses[[#This Row],[AMOUNT]]*0.15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1481,13 +1481,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PersonnelExpensesTable" displayName="PersonnelExpensesTable" ref="H11:L15" totalsRowCount="1">
   <autoFilter ref="H11:L14"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="PERSONNEL EXPENSES" totalsRowLabel="Total Personnel" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="ESTIMATED" totalsRowFunction="sum" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="ACTUAL" totalsRowFunction="sum" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="Top 5 Amount" totalsRowDxfId="6">
+    <tableColumn id="1" name="PERSONNEL EXPENSES" totalsRowLabel="Total Personnel" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="ESTIMATED" totalsRowFunction="sum" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="ACTUAL" totalsRowFunction="sum" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Top 5 Amount" totalsRowDxfId="1">
       <calculatedColumnFormula>PersonnelExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(PersonnelExpensesTable[[#This Row],[ACTUAL]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="DIFFERENCE" totalsRowFunction="sum" totalsRowDxfId="5">
+    <tableColumn id="5" name="DIFFERENCE" totalsRowFunction="sum" totalsRowDxfId="0">
       <calculatedColumnFormula>PersonnelExpensesTable[[#This Row],[ESTIMATED]]-PersonnelExpensesTable[[#This Row],[ACTUAL]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1755,7 +1755,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1804,7 +1804,7 @@
       <c r="I3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="35">
-        <v>40603</v>
+        <v>42217</v>
       </c>
       <c r="M3" s="35"/>
     </row>

--- a/Docs/RavenGamesMonthly business budget.xlsx
+++ b/Docs/RavenGamesMonthly business budget.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Monthly Budget" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Monthly Budget'!$J$18:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Monthly Budget'!$J$17:$J$36</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">'Monthly Budget'!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'Monthly Budget'!#REF!</definedName>
   </definedNames>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Other</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Net sales</t>
-  </si>
-  <si>
-    <t>Interest income</t>
   </si>
   <si>
     <t>Asset sales (gain/loss)</t>
@@ -395,6 +392,156 @@
     <cellStyle name="Title" xfId="3" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Gill Sans MT"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Gill Sans MT"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Gill Sans MT"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Gill Sans MT"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Gill Sans MT"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -780,156 +927,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Gill Sans MT"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Gill Sans MT"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Gill Sans MT"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Gill Sans MT"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Gill Sans MT"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.59999389629810485"/>
@@ -1143,10 +1140,10 @@
                 <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>23300</c:v>
+                  <c:v>20300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12450</c:v>
+                  <c:v>4450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,11 +1226,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-3"/>
-        <c:axId val="-1796582176"/>
-        <c:axId val="-1796579456"/>
+        <c:axId val="-819929424"/>
+        <c:axId val="-819935408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1796582176"/>
+        <c:axId val="-819929424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1254,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1796579456"/>
+        <c:crossAx val="-819935408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1265,7 +1262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1796579456"/>
+        <c:axId val="-819935408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1796582176"/>
+        <c:crossAx val="-819929424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1381,8 +1378,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="OperatingExpensesTable" displayName="OperatingExpensesTable" ref="H17:L38" totalsRowCount="1">
-  <autoFilter ref="H17:L37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="OperatingExpensesTable" displayName="OperatingExpensesTable" ref="H16:L37" totalsRowCount="1">
+  <autoFilter ref="H16:L36"/>
   <sortState ref="H17:L37">
     <sortCondition ref="H16:H37"/>
   </sortState>
@@ -1407,16 +1404,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="IncomeTable" displayName="IncomeTable" ref="H5:L9" totalsRowCount="1">
-  <autoFilter ref="H5:L8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="IncomeTable" displayName="IncomeTable" ref="H5:L8" totalsRowCount="1">
+  <autoFilter ref="H5:L7"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="INCOME" totalsRowLabel="Total" totalsRowDxfId="14"/>
-    <tableColumn id="2" name="ESTIMATED" totalsRowFunction="sum" totalsRowDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="3" name="ACTUAL" totalsRowFunction="sum" totalsRowDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="5" name="TOP 5 AMOUNT" totalsRowDxfId="11">
+    <tableColumn id="1" name="INCOME" totalsRowLabel="Total" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="ESTIMATED" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="ACTUAL" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="TOP 5 AMOUNT" totalsRowDxfId="1">
       <calculatedColumnFormula>IncomeTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(IncomeTable[[#This Row],[ACTUAL]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="DIFFERENCE" totalsRowFunction="sum" totalsRowDxfId="10" dataCellStyle="Comma">
+    <tableColumn id="4" name="DIFFERENCE" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>IncomeTable[[#This Row],[ACTUAL]]-IncomeTable[[#This Row],[ESTIMATED]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1457,14 +1454,14 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Top5Expenses" displayName="Top5Expenses" ref="B32:E38" totalsRowCount="1">
   <tableColumns count="4">
-    <tableColumn id="1" name="EXPENSE" totalsRowLabel="Total" totalsRowDxfId="9">
+    <tableColumn id="1" name="EXPENSE" totalsRowLabel="Total" totalsRowDxfId="14">
       <calculatedColumnFormula>INDEX(OperatingExpensesTable[],MATCH(Top5Expenses[[#This Row],[AMOUNT]],OperatingExpensesTable[Top 5 Amount],0),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="AMOUNT" totalsRowFunction="sum" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="% OF EXPENSES" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="2" name="AMOUNT" totalsRowFunction="sum" totalsRowDxfId="13"/>
+    <tableColumn id="3" name="% OF EXPENSES" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>Top5Expenses[[#This Row],[AMOUNT]]/$D$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="15% REDUCTION" totalsRowFunction="sum" totalsRowDxfId="5">
+    <tableColumn id="4" name="15% REDUCTION" totalsRowFunction="sum" totalsRowDxfId="10">
       <calculatedColumnFormula>Top5Expenses[[#This Row],[AMOUNT]]*0.15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1478,16 +1475,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PersonnelExpensesTable" displayName="PersonnelExpensesTable" ref="H11:L15" totalsRowCount="1">
-  <autoFilter ref="H11:L14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PersonnelExpensesTable" displayName="PersonnelExpensesTable" ref="H10:L14" totalsRowCount="1">
+  <autoFilter ref="H10:L13"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="PERSONNEL EXPENSES" totalsRowLabel="Total Personnel" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="ESTIMATED" totalsRowFunction="sum" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="ACTUAL" totalsRowFunction="sum" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Top 5 Amount" totalsRowDxfId="1">
+    <tableColumn id="1" name="PERSONNEL EXPENSES" totalsRowLabel="Total Personnel" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="ESTIMATED" totalsRowFunction="sum" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="ACTUAL" totalsRowFunction="sum" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="Top 5 Amount" totalsRowDxfId="6">
       <calculatedColumnFormula>PersonnelExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(PersonnelExpensesTable[[#This Row],[ACTUAL]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="DIFFERENCE" totalsRowFunction="sum" totalsRowDxfId="0">
+    <tableColumn id="5" name="DIFFERENCE" totalsRowFunction="sum" totalsRowDxfId="5">
       <calculatedColumnFormula>PersonnelExpensesTable[[#This Row],[ESTIMATED]]-PersonnelExpensesTable[[#This Row],[ACTUAL]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1755,7 +1752,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1777,7 +1774,7 @@
     <row r="1" spans="1:13" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1847,15 +1844,15 @@
       </c>
       <c r="C6" s="6">
         <f>IncomeTable[[#Totals],[ESTIMATED]]</f>
-        <v>23300</v>
+        <v>20300</v>
       </c>
       <c r="D6" s="6">
         <f>IncomeTable[[#Totals],[ACTUAL]]</f>
-        <v>12450</v>
+        <v>4450</v>
       </c>
       <c r="E6" s="6">
         <f>TotalsTable[[#This Row],[ACTUAL]]-TotalsTable[[#This Row],[ESTIMATED]]</f>
-        <v>-10850</v>
+        <v>-15850</v>
       </c>
       <c r="F6" s="17"/>
       <c r="H6" s="5" t="s">
@@ -1865,15 +1862,15 @@
         <v>20000</v>
       </c>
       <c r="J6" s="6">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="K6" s="6">
         <f>IncomeTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(IncomeTable[[#This Row],[ACTUAL]])</f>
-        <v>9000.0000060000002</v>
+        <v>4000.0000060000002</v>
       </c>
       <c r="L6" s="6">
         <f>IncomeTable[[#This Row],[ACTUAL]]-IncomeTable[[#This Row],[ESTIMATED]]</f>
-        <v>-11000</v>
+        <v>-16000</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1897,18 +1894,18 @@
         <v>42</v>
       </c>
       <c r="I7" s="6">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="J7" s="6">
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="K7" s="6">
         <f>IncomeTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(IncomeTable[[#This Row],[ACTUAL]])</f>
-        <v>3000.0000070000001</v>
+        <v>450.00000699999998</v>
       </c>
       <c r="L7" s="6">
         <f>IncomeTable[[#This Row],[ACTUAL]]-IncomeTable[[#This Row],[ESTIMATED]]</f>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1917,90 +1914,90 @@
       </c>
       <c r="C8" s="7">
         <f>C6-C7</f>
-        <v>6570.1699999999983</v>
+        <v>3570.1699999999983</v>
       </c>
       <c r="D8" s="7">
         <f>D6-D7</f>
-        <v>-3479.83</v>
+        <v>-11479.83</v>
       </c>
       <c r="E8" s="6">
         <f>TotalsTable[[#Totals],[ACTUAL]]-TotalsTable[[#Totals],[ESTIMATED]]</f>
-        <v>-10049.999999999998</v>
+        <v>-15049.999999999998</v>
       </c>
       <c r="F8" s="18"/>
       <c r="H8" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="I8" s="6">
-        <v>300</v>
+        <f>SUBTOTAL(109,IncomeTable[ESTIMATED])</f>
+        <v>20300</v>
       </c>
       <c r="J8" s="6">
-        <v>450</v>
-      </c>
-      <c r="K8" s="6">
-        <f>IncomeTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(IncomeTable[[#This Row],[ACTUAL]])</f>
-        <v>450.00000799999998</v>
-      </c>
+        <f>SUBTOTAL(109,IncomeTable[ACTUAL])</f>
+        <v>4450</v>
+      </c>
+      <c r="K8" s="7"/>
       <c r="L8" s="6">
-        <f>IncomeTable[[#This Row],[ACTUAL]]-IncomeTable[[#This Row],[ESTIMATED]]</f>
-        <v>150</v>
+        <f>SUBTOTAL(109,IncomeTable[DIFFERENCE])</f>
+        <v>-15850</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="6">
-        <f>SUBTOTAL(109,IncomeTable[ESTIMATED])</f>
-        <v>23300</v>
-      </c>
-      <c r="J9" s="6">
-        <f>SUBTOTAL(109,IncomeTable[ACTUAL])</f>
-        <v>12450</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6">
-        <f>SUBTOTAL(109,IncomeTable[DIFFERENCE])</f>
-        <v>-10850</v>
-      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="H10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="I11" s="6">
+        <v>6324</v>
+      </c>
+      <c r="J11" s="32">
+        <v>6324</v>
+      </c>
+      <c r="K11" s="7">
+        <f>PersonnelExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(PersonnelExpensesTable[[#This Row],[ACTUAL]])</f>
+        <v>6324.0000110000001</v>
+      </c>
+      <c r="L11" s="6">
+        <f>PersonnelExpensesTable[[#This Row],[ESTIMATED]]-PersonnelExpensesTable[[#This Row],[ACTUAL]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H12" s="5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I12" s="6">
-        <v>6324</v>
-      </c>
-      <c r="J12" s="32">
-        <v>6324</v>
+        <v>1264</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1264</v>
       </c>
       <c r="K12" s="7">
         <f>PersonnelExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(PersonnelExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>6324.0000120000004</v>
+        <v>1264.000012</v>
       </c>
       <c r="L12" s="6">
         <f>PersonnelExpensesTable[[#This Row],[ESTIMATED]]-PersonnelExpensesTable[[#This Row],[ACTUAL]]</f>
@@ -2009,17 +2006,17 @@
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H13" s="5" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="6">
-        <v>1264</v>
+        <v>0</v>
       </c>
       <c r="J13" s="6">
-        <v>1264</v>
+        <v>0</v>
       </c>
       <c r="K13" s="7">
         <f>PersonnelExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(PersonnelExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>1264.0000130000001</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="L13" s="6">
         <f>PersonnelExpensesTable[[#This Row],[ESTIMATED]]-PersonnelExpensesTable[[#This Row],[ACTUAL]]</f>
@@ -2028,97 +2025,97 @@
     </row>
     <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <f>PersonnelExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(PersonnelExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>1.4E-5</v>
-      </c>
-      <c r="L14" s="6">
-        <f>PersonnelExpensesTable[[#This Row],[ESTIMATED]]-PersonnelExpensesTable[[#This Row],[ACTUAL]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I14" s="7">
         <f>SUBTOTAL(109,PersonnelExpensesTable[ESTIMATED])</f>
         <v>7588</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J14" s="7">
         <f>SUBTOTAL(109,PersonnelExpensesTable[ACTUAL])</f>
         <v>7588</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7">
+      <c r="K14" s="7"/>
+      <c r="L14" s="7">
         <f>SUBTOTAL(109,PersonnelExpensesTable[DIFFERENCE])</f>
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+    </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
+      <c r="H16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>3000</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2500</v>
+      </c>
+      <c r="K17" s="6">
+        <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
+        <v>2500.0000169999998</v>
+      </c>
+      <c r="L17" s="6">
+        <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H18" s="5" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I18" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J18" s="6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="K18" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>2500.0000180000002</v>
+        <v>1.8E-5</v>
       </c>
       <c r="L18" s="6">
         <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H19" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I19" s="6">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="J19" s="6">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="K19" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>1.8999999999999998E-5</v>
+        <v>166.00001900000001</v>
       </c>
       <c r="L19" s="6">
         <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
@@ -2130,14 +2127,14 @@
         <v>46</v>
       </c>
       <c r="I20" s="6">
-        <v>166</v>
+        <v>20.83</v>
       </c>
       <c r="J20" s="6">
-        <v>166</v>
+        <v>20.83</v>
       </c>
       <c r="K20" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>166.00002000000001</v>
+        <v>20.830019999999998</v>
       </c>
       <c r="L20" s="6">
         <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
@@ -2146,17 +2143,17 @@
     </row>
     <row r="21" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H21" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I21" s="6">
-        <v>20.83</v>
+        <v>1000</v>
       </c>
       <c r="J21" s="6">
-        <v>20.83</v>
+        <v>1000</v>
       </c>
       <c r="K21" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>20.830020999999999</v>
+        <v>1000.0000209999999</v>
       </c>
       <c r="L21" s="6">
         <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
@@ -2165,17 +2162,17 @@
     </row>
     <row r="22" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H22" s="5" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="I22" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J22" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>1000.0000219999999</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="L22" s="6">
         <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
@@ -2184,7 +2181,7 @@
     </row>
     <row r="23" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H23" s="5" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="I23" s="6">
         <v>0</v>
@@ -2203,7 +2200,7 @@
     </row>
     <row r="24" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H24" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="6">
         <v>0</v>
@@ -2222,7 +2219,7 @@
     </row>
     <row r="25" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H25" s="5" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I25" s="6">
         <v>0</v>
@@ -2243,7 +2240,7 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="H26" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I26" s="6">
         <v>0</v>
@@ -2263,7 +2260,7 @@
     <row r="27" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D27" s="20"/>
       <c r="H27" s="5" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="I27" s="6">
         <v>0</v>
@@ -2283,35 +2280,35 @@
     <row r="28" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D28" s="20"/>
       <c r="F28" s="19"/>
-      <c r="H28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
         <v>2.8E-5</v>
       </c>
-      <c r="L28" s="6">
-        <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
-        <v>0</v>
-      </c>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D29" s="20"/>
       <c r="F29" s="21"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="H29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="6">
+        <v>425</v>
+      </c>
+      <c r="J29" s="6">
+        <v>425</v>
+      </c>
       <c r="K29" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>2.9E-5</v>
-      </c>
-      <c r="L29" s="6"/>
+        <v>425.00002899999998</v>
+      </c>
+      <c r="L29" s="6">
+        <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="34"/>
@@ -2320,21 +2317,21 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="H30" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I30" s="6">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="J30" s="6">
-        <v>425</v>
+        <v>100</v>
       </c>
       <c r="K30" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>425.00002999999998</v>
+        <v>100.00003</v>
       </c>
       <c r="L30" s="6">
         <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2345,21 +2342,21 @@
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="H31" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I31" s="6">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J31" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K31" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>100.00003100000001</v>
+        <v>3.1000000000000001E-5</v>
       </c>
       <c r="L31" s="6">
         <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2376,7 +2373,7 @@
         <v>34</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I32" s="6">
         <v>0</v>
@@ -2400,32 +2397,32 @@
       </c>
       <c r="C33" s="24">
         <f>LARGE(OperatingExpensesTable[Top 5 Amount],1)</f>
-        <v>3200.0000340000001</v>
+        <v>3200.0000329999998</v>
       </c>
       <c r="D33" s="28">
         <f>Top5Expenses[[#This Row],[AMOUNT]]/$D$7</f>
-        <v>0.20088099082036659</v>
+        <v>0.20088099075759125</v>
       </c>
       <c r="E33" s="6">
         <f>Top5Expenses[[#This Row],[AMOUNT]]*0.15</f>
-        <v>480.00000510000001</v>
+        <v>480.00000494999995</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I33" s="6">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J33" s="6">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="K33" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>3.2999999999999996E-5</v>
+        <v>3200.0000329999998</v>
       </c>
       <c r="L33" s="6">
         <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2435,32 +2432,32 @@
       </c>
       <c r="C34" s="4">
         <f>LARGE(OperatingExpensesTable[Top 5 Amount],2)</f>
-        <v>2500.0000180000002</v>
+        <v>2500.0000169999998</v>
       </c>
       <c r="D34" s="28">
         <f>Top5Expenses[[#This Row],[AMOUNT]]/$D$7</f>
-        <v>0.15693827354089782</v>
+        <v>0.15693827347812248</v>
       </c>
       <c r="E34" s="6">
         <f>Top5Expenses[[#This Row],[AMOUNT]]*0.15</f>
-        <v>375.00000270000004</v>
+        <v>375.00000254999998</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I34" s="6">
-        <v>3000</v>
+        <v>80</v>
       </c>
       <c r="J34" s="6">
-        <v>3200</v>
+        <v>80</v>
       </c>
       <c r="K34" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>3200.0000340000001</v>
+        <v>80.000033999999999</v>
       </c>
       <c r="L34" s="6">
         <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2470,28 +2467,28 @@
       </c>
       <c r="C35" s="4">
         <f>LARGE(OperatingExpensesTable[Top 5 Amount],3)</f>
-        <v>1000.0000219999999</v>
+        <v>1000.0000209999999</v>
       </c>
       <c r="D35" s="28">
         <f>Top5Expenses[[#This Row],[AMOUNT]]/$D$7</f>
-        <v>6.2775310345433696E-2</v>
+        <v>6.2775310282658384E-2</v>
       </c>
       <c r="E35" s="6">
         <f>Top5Expenses[[#This Row],[AMOUNT]]*0.15</f>
-        <v>150.00000329999997</v>
+        <v>150.00000315</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I35" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J35" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K35" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>80.000034999999997</v>
+        <v>100.000035</v>
       </c>
       <c r="L35" s="6">
         <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
@@ -2505,32 +2502,32 @@
       </c>
       <c r="C36" s="4">
         <f>LARGE(OperatingExpensesTable[Top 5 Amount],4)</f>
-        <v>750.00003700000002</v>
+        <v>750.00003600000002</v>
       </c>
       <c r="D36" s="28">
         <f>Top5Expenses[[#This Row],[AMOUNT]]/$D$7</f>
-        <v>4.7081484045969103E-2</v>
+        <v>4.7081483983193798E-2</v>
       </c>
       <c r="E36" s="6">
         <f>Top5Expenses[[#This Row],[AMOUNT]]*0.15</f>
-        <v>112.50000555</v>
+        <v>112.50000540000001</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I36" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J36" s="6">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="K36" s="6">
         <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>100.00003599999999</v>
+        <v>750.00003600000002</v>
       </c>
       <c r="L36" s="6">
         <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2540,32 +2537,31 @@
       </c>
       <c r="C37" s="4">
         <f>LARGE(OperatingExpensesTable[Top 5 Amount],5)</f>
-        <v>425.00002999999998</v>
+        <v>425.00002899999998</v>
       </c>
       <c r="D37" s="28">
         <f>Top5Expenses[[#This Row],[AMOUNT]]/$D$7</f>
-        <v>2.6679508193119449E-2</v>
+        <v>2.6679508130344139E-2</v>
       </c>
       <c r="E37" s="6">
         <f>Top5Expenses[[#This Row],[AMOUNT]]*0.15</f>
-        <v>63.750004499999996</v>
+        <v>63.750004349999998</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>1000</v>
-      </c>
-      <c r="J37" s="6">
-        <v>750</v>
-      </c>
-      <c r="K37" s="6">
-        <f>OperatingExpensesTable[[#This Row],[ACTUAL]]+(10^-6)*ROW(OperatingExpensesTable[[#This Row],[ACTUAL]])</f>
-        <v>750.00003700000002</v>
-      </c>
-      <c r="L37" s="6">
-        <f>OperatingExpensesTable[[#This Row],[ESTIMATED]]-OperatingExpensesTable[[#This Row],[ACTUAL]]</f>
-        <v>250</v>
+        <v>33</v>
+      </c>
+      <c r="I37" s="7">
+        <f>SUBTOTAL(109,OperatingExpensesTable[ESTIMATED])</f>
+        <v>9141.83</v>
+      </c>
+      <c r="J37" s="7">
+        <f>SUBTOTAL(109,OperatingExpensesTable[ACTUAL])</f>
+        <v>8341.83</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7">
+        <f>SUBTOTAL(109,OperatingExpensesTable[DIFFERENCE])</f>
+        <v>800</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2574,45 +2570,29 @@
       </c>
       <c r="C38" s="25">
         <f>SUBTOTAL(109,Top5Expenses[AMOUNT])</f>
-        <v>7875.0001410000004</v>
+        <v>7875.0001359999997</v>
       </c>
       <c r="D38" s="29">
         <f>SUBTOTAL(109,Top5Expenses[% OF EXPENSES])</f>
-        <v>0.4943555669457867</v>
+        <v>0.49435556663191005</v>
       </c>
       <c r="E38" s="6">
         <f>SUBTOTAL(109,Top5Expenses[15% REDUCTION])</f>
-        <v>1181.2500211500001</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="7">
-        <f>SUBTOTAL(109,OperatingExpensesTable[ESTIMATED])</f>
-        <v>9141.83</v>
-      </c>
-      <c r="J38" s="7">
-        <f>SUBTOTAL(109,OperatingExpensesTable[ACTUAL])</f>
-        <v>8341.83</v>
-      </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7">
-        <f>SUBTOTAL(109,OperatingExpensesTable[DIFFERENCE])</f>
-        <v>800</v>
+        <v>1181.2500203999998</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H9:L9"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="L3:M3"/>
   </mergeCells>
@@ -2650,7 +2630,7 @@
               <x14:cfIcon iconSet="NoIcons" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L18:L37 L6:L8 L12:L14</xm:sqref>
+          <xm:sqref>L17:L36 L6:L7 L11:L13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
